--- a/Recycling/Met_rec/metrec_Max_target.xlsx
+++ b/Recycling/Met_rec/metrec_Max_target.xlsx
@@ -111,6 +111,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="4">
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +495,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -492,7 +533,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,11 +545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.007779765729681548</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.259604567929152E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.191389874578182E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8.928368020520174E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.953730354335455E-05</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +583,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,11 +595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4735.00994075447</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6563.376057082191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9021.832618017437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5401.35794853711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>46798.97612215142</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +633,7 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,11 +645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4880.994023113625</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6982.074790053495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9720.700193581533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5754.770691917445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>49157.80952125962</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +683,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,11 +695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.01759526302426124</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.013887312657897E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.395874639509403E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.758865147807173E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.604294879588654E-05</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +733,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,11 +745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.03714857607178606</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0001419436924358864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8.226491924888875E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.264922685613244E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.000136704373438548</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +783,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,11 +795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.07440812690816544</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0002746064630577747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.461801380829731E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.777124329337106E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0002330346459146538</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +833,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,11 +845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.143230182885576</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0005141666020494856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.519893686435278E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9.855417629229568E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0003812662261258154</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +883,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,11 +895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.2673535742335678</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0009380667610800184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.318225073368912E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0001637291524572091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0006048918270050344</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +933,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,11 +945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.4857645850581545</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.001667892296602681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.513953071480365E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.000266736234128934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0009381881380955081</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +983,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,11 +995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.8587704108513809</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.002880414496224306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0001342658035118805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0004276277267759572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001431326874125667</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,11 +1045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.474262393426465</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.004816926496827894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0002449175033790525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0006753002744638321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.002157607378987036</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,11 +1095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.45389084401293</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.007791645832437763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0004488341589098738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.00105024511696479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.003222402341535852</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,10 +1145,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,11 +1195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.958843337686869</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.01219929242569559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0008148287863904449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.001608043488881258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.00477313735074322</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,11 +1245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6.19474613000082</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.01852178178543641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.001452113061322932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.002423072780456489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.007010139071006398</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,11 +1295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9.415079379107105</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.02733430657964331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.002524533208470568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.003592042013901459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.01019836900042175</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,11 +1345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13.92233632478135</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0393111295665162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.004263921303580723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.005237499057467295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.01468012749968676</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,11 +1395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>20.06577518428089</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05523086730839601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.006983551612385618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.007511568838244078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.02088817049659352</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,11 +1445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>28.23422287374693</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2484541509027356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.03627343868828076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.03466169898404996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.09600197419866401</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,11 +1495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>38.84255710302544</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5662194972974309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.09451746875633533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.08131874614495682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2249918638979144</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,11 +1545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>52.31187807195994</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.049439189561664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.198608769588561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1556584005146747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4311694195810353</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,11 +1595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>69.04319612336762</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.742965035065037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.3716117807225342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.268010371718405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.7444407259974627</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,11 +1645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>89.38438324352518</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.693509192247704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.6443208263882221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4314423182558552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.203229346705984</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,11 +1695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.517900827262188E-08</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.998924248029732E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.37634003029482E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.071956551452926E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.545954883191526E-10</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,11 +1745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>113.5953030507147</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.947001490093453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.057583572345147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.6627197762084819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.857905308122596</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,11 +1795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>141.8177365284942</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.54524123313811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.665293519480842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.9835689088190877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.775716474637001</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,11 +1845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>174.0557648683326</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.567957778958137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.552527885682414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.430513694212005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.070546749326936</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,11 +1895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>210.1759146811231</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.14337738870392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.851698056426661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.061564269124386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.925097233021929</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,11 +1945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>249.9413648809784</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13.39962884929577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5.738416161422782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.951919454076452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8.582598528680037</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,11 +1995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>293.0987762023505</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17.49528674581705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8.452167236544005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.204067756185773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12.38052401170619</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,11 +2045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>339.5383257021049</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>22.62567458258826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12.31201390245474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.954350696673483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17.77607354715676</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,11 +2095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>389.5441875597836</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29.02970872682703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17.73397579581725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8.380166598197995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>25.37502100771447</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,11 +2145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>444.1398877033963</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>36.9973138807002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25.25013238441097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11.70784848566781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35.96399144743931</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,11 +2195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>505.5069922856524</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46.87726826604278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35.52911545557969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>16.22108645337628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>50.54576874743059</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,11 +2245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.540764126471636E-06</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.260166053374901E-08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.209462933665889E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.546378746245614E-09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.932229216384076E-08</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,11 +2295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>577.4146669892006</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>59.08487232268837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>49.39667987542073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22.26934831854096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>70.37596042139121</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,11 +2345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>665.5578512786094</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>74.10944924642666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>67.85619544676558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>30.27624451013028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>97.00095128464486</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,11 +2395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>777.6764787603148</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>92.52211898328942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>92.10968072618849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>40.7481141592174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>132.2981739574937</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,11 +2445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>923.3280098780302</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>114.9841667523368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>123.5796613642996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>54.2829639416202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>178.5193052144244</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,11 +2495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1113.228734562299</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>142.25622341357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>163.931820772708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>71.57977350735226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>238.3364908143412</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,11 +2545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1358.165397705299</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>175.2082982669265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>215.0979495741516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>93.44802372987819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>314.8908422214593</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +2583,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,11 +2595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1667.584381380563</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>214.8307567187457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>279.2987045886329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>120.8172478135925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>411.8427373497319</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1596,11 +2645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2048.04786896425</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>262.2462754308303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>359.0654975121804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>154.7462829571781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>533.4233277753451</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,11 +2695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2501.766361753338</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>318.7225418610157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>457.2602841643892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>196.4316677468863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>684.4857288521879</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,11 +2745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3025.372611134555</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>385.6851593842587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>577.0914255421638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>247.2143618748734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>870.5535393355182</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,11 +2795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.690198662391843E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.108414386803849E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.841352170781205E-09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.123852596737598E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.768150755858598E-07</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1700,11 +2845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3609.035710563402</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>464.7298476537615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>722.1231013833366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>308.5836491941964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1097.863546251672</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,11 +2895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4235.986833072045</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>557.6324078323366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>896.2749674257449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>382.1767218911119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1373.397657714998</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1752,11 +2945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4882.569867188918</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>665.8712202627815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1103.007822745314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>469.4315456651297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1703.661557114576</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,11 +2995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5519.004836096226</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>790.7106507104236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1345.32715467107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>571.5902253225604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2094.680811533649</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +3033,7 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1804,11 +3045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6111.072926956096</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>933.7276283453343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1626.60538332547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>690.0480276226932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2553.285415337812</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,11 +3095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6622.822803761043</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1096.427209670126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1949.92375840655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>826.0710514961891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3086.119570700204</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,11 +3145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7020.151077909743</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1280.165020740982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2317.890622830922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>980.7169727446408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3699.368035842045</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,11 +3195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7274.8005635605</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1486.048935285879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2732.43077265825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1154.742910932126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4398.428338654358</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1908,11 +3245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7368.072993453558</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1714.819178399315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3194.54853262106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1348.50169101802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5187.530581159305</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1934,11 +3295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7293.488785794349</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1966.708230652538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3704.070061020061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1561.829232383079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6069.311447378152</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,11 +3345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9.321608724090258E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.266209570076175E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.831052176456605E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.973145194994666E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8.590330184193999E-07</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,11 +3395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7057.808511333967</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2241.284905643103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4259.374020654387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1793.927606707584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7044.355357815919</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +3433,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,11 +3445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6680.229273669762</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2537.29057619459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4857.123979463123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2043.250343141763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8110.722723718492</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,11 +3495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6190.051750885529</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2852.479520187612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5492.020614176767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2307.398767637136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9263.493325253579</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +3533,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2064,11 +3545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5623.478731182838</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3183.479286406723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6156.596631182431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2583.040340019802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10494.36149619961</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,11 +3595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5020.275464563329</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3525.690163202368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6841.081664920597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2865.861731202264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11791.3276923117</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3633,7 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,11 +3645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4420.759620987778</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3873.244557514841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7533.367478185833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3150.570366613544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>13138.53687693731</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2142,11 +3695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3863.167752149569</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4219.046720530219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8219.104735179913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3430.958024330398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>14516.31672762611</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2168,11 +3745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3381.17489501307</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4554.91020121892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8881.960265434618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3700.038253226117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15901.46595675049</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +3783,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,11 +3795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3001.447303687999</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4871.804404205121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9504.057086193216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3950.265493448289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17267.83346243484</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,11 +3845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2741.513527339378</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5160.212816179938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10066.60788614528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4173.837731743532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>18587.21170715569</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2246,11 +3895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0003618698079628579</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.842489391771341E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.418385070292919E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.63369787951263E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.937889618595884E-06</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3933,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,11 +3945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2608.595517212236</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5410.594399692642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10550.73610135716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4363.076449759465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19830.54252793519</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2298,11 +3995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2599.989695584426</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5613.927369809209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10938.45800085302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4510.868154354856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20969.40176503931</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +4033,7 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,11 +4045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2705.061371590301</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5762.302342516477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11213.77600360422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4611.141788950264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>21977.69316992039</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,11 +4095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2908.217377571567</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5849.521219697398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11363.81054043021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4659.347136617929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22833.44607616877</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2376,11 +4145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3191.813454712194</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5871.650790377757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11379.87877329626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4652.892545332774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>23520.58054893076</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +4183,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,11 +4195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3538.114865626046</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5827.47735067107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11258.41725434446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4591.497478431254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24030.48375519059</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +4233,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2428,11 +4245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3930.040036885614</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5718.811818345293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11001.64568714578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4477.417775918728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24363.23697895687</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2454,11 +4295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4351.045444657731</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5550.604272195341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10617.88242620038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4315.509635000455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24528.3475130533</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,11 +4345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4784.762230336638</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5330.842209924731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10121.44938632646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4113.111838070039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24544.87427900838</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,11 +4395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5214.822479610652</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5070.226781968772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9532.142436885808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3879.743353087225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24440.88783637682</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +4433,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,11 +4445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.001144786616908411</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.4007078338386E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.079096867462923E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.794493438627236E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8.03909003535443E-06</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +4483,7 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,11 +4495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5624.985617024593</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4781.643574830865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8874.288534439196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3626.63288437963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24252.2687318486</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +4533,7 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,11 +4545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5999.481215185923</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4479.466322914458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8175.456562719412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3366.115519399215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24020.91469957128</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,11 +4595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6323.489432733154</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4178.750107225487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7464.928184187785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3110.946496332414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>23792.48817879201</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +4633,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2636,11 +4645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6583.759350249688</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3894.382469734673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6772.061878034373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2873.591044345737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>23613.88271401615</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2662,11 +4695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6769.389801651656</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3640.264717032158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6124.693712482959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2665.55094700773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>23530.61397110568</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +4733,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,11 +4745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6872.74288274398</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3428.59106609022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5547.711022169956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2496.782882019205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>23584.34554892507</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2714,11 +4795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6890.375444577709</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3269.281125425939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5061.911757835852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2375.251813198416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>23810.74204636565</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,11 +4845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6823.806520965654</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3169.603418807987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4683.226788388785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2306.646672757274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24237.8052897644</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2766,11 +4895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6679.91215505634</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3134.006788491945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4422.340248700427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2294.267625409215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24884.7993537358</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4933,7 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2792,11 +4945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6470.766866825599</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3164.155235606921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4284.699899665192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2339.076697945447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>25761.81193667027</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,11 +4995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.003150732876366586</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.39615280987779E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.000582078702494E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.207269959202511E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.886062051509322E-05</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +5033,7 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,11 +5045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6212.842718119002</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3259.142474110142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4270.870631746327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2439.888500642816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>26869.9398992322</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2870,11 +5095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5925.622984369466</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3415.847198731779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4377.15398593719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2593.666721510578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>28202.03149463058</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,11 +5145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5629.843817108084</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3629.380200757305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4596.377902189945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2795.886019623018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>29743.87248635525</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +5183,7 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,11 +5195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5345.677020757859</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3893.570870516604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4918.755495988841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3040.918303061645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>31475.67277579021</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +5233,7 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2948,11 +5245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5091.159457436157</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4201.443485587291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5332.719560338871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3322.406921917977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>33373.69760963637</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2974,11 +5295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4881.063880431525</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4545.642312938896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5825.658838729364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3633.601040729024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35411.89359759683</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +5333,7 @@
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3000,11 +5345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4726.254225055122</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4918.777409106473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6384.509161862826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3967.633669641836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>37563.38267099203</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,11 +5395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4633.452873421764</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5313.677709403022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6996.18209519079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4317.738270061147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39801.73115574968</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +5433,7 @@
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,11 +5445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4605.307708606339</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5723.551958791862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7647.840283223105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4677.408268810331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>42101.93951527677</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3078,11 +5495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4640.667301688869</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6142.06904626815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8327.047734090764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5040.509594045043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>44441.13463852536</v>
       </c>
     </row>
   </sheetData>
